--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>Ptprf</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H2">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I2">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J2">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.160070740901795</v>
+        <v>0.3105913333333333</v>
       </c>
       <c r="N2">
-        <v>0.160070740901795</v>
+        <v>0.931774</v>
       </c>
       <c r="O2">
-        <v>0.01703564124458196</v>
+        <v>0.03128659259739168</v>
       </c>
       <c r="P2">
-        <v>0.01703564124458196</v>
+        <v>0.03928326902580845</v>
       </c>
       <c r="Q2">
-        <v>0.003120772169091154</v>
+        <v>0.007311319986666667</v>
       </c>
       <c r="R2">
-        <v>0.003120772169091154</v>
+        <v>0.06580187988</v>
       </c>
       <c r="S2">
-        <v>0.0002081414151976179</v>
+        <v>0.0004265694588825006</v>
       </c>
       <c r="T2">
-        <v>0.0002081414151976179</v>
+        <v>0.0007797206454563191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H3">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I3">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J3">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.24294532588905</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N3">
-        <v>3.24294532588905</v>
+        <v>10.180718</v>
       </c>
       <c r="O3">
-        <v>0.3451327384155332</v>
+        <v>0.3418425244908446</v>
       </c>
       <c r="P3">
-        <v>0.3451327384155332</v>
+        <v>0.4292155437583475</v>
       </c>
       <c r="Q3">
-        <v>0.06322513072596955</v>
+        <v>0.07988470057333333</v>
       </c>
       <c r="R3">
-        <v>0.06322513072596955</v>
+        <v>0.7189623051599999</v>
       </c>
       <c r="S3">
-        <v>0.004216830794537029</v>
+        <v>0.004660768993656545</v>
       </c>
       <c r="T3">
-        <v>0.004216830794537029</v>
+        <v>0.008519357709239327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="H4">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="I4">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J4">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.99321026855207</v>
+        <v>0.1456443333333333</v>
       </c>
       <c r="N4">
-        <v>5.99321026855207</v>
+        <v>0.436933</v>
       </c>
       <c r="O4">
-        <v>0.6378316203398848</v>
+        <v>0.01467109488283225</v>
       </c>
       <c r="P4">
-        <v>0.6378316203398848</v>
+        <v>0.01842094390405137</v>
       </c>
       <c r="Q4">
-        <v>0.1168448631163853</v>
+        <v>0.003428467606666667</v>
       </c>
       <c r="R4">
-        <v>0.1168448631163853</v>
+        <v>0.03085620846</v>
       </c>
       <c r="S4">
-        <v>0.007793024882908723</v>
+        <v>0.0002000294850230932</v>
       </c>
       <c r="T4">
-        <v>0.007793024882908723</v>
+        <v>0.0003656312375974923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.57619955629736</v>
+        <v>0.02354</v>
       </c>
       <c r="H5">
-        <v>1.57619955629736</v>
+        <v>0.07062</v>
       </c>
       <c r="I5">
-        <v>0.9877820029073566</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J5">
-        <v>0.9877820029073566</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.160070740901795</v>
+        <v>0.01495533333333333</v>
       </c>
       <c r="N5">
-        <v>0.160070740901795</v>
+        <v>0.044866</v>
       </c>
       <c r="O5">
-        <v>0.01703564124458196</v>
+        <v>0.001506485761004895</v>
       </c>
       <c r="P5">
-        <v>0.01703564124458196</v>
+        <v>0.001891535016121851</v>
       </c>
       <c r="Q5">
-        <v>0.252303430785599</v>
+        <v>0.0003520485466666667</v>
       </c>
       <c r="R5">
-        <v>0.252303430785599</v>
+        <v>0.00316843692</v>
       </c>
       <c r="S5">
-        <v>0.01682749982938435</v>
+        <v>2.053981474286927E-05</v>
       </c>
       <c r="T5">
-        <v>0.01682749982938435</v>
+        <v>3.754445442676358E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.57619955629736</v>
+        <v>0.02354</v>
       </c>
       <c r="H6">
-        <v>1.57619955629736</v>
+        <v>0.07062</v>
       </c>
       <c r="I6">
-        <v>0.9877820029073566</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="J6">
-        <v>0.9877820029073566</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.24294532588905</v>
+        <v>6.0625345</v>
       </c>
       <c r="N6">
-        <v>3.24294532588905</v>
+        <v>12.125069</v>
       </c>
       <c r="O6">
-        <v>0.3451327384155332</v>
+        <v>0.6106933022679266</v>
       </c>
       <c r="P6">
-        <v>0.3451327384155332</v>
+        <v>0.5111887082956706</v>
       </c>
       <c r="Q6">
-        <v>5.111528983762919</v>
+        <v>0.14271206213</v>
       </c>
       <c r="R6">
-        <v>5.111528983762919</v>
+        <v>0.85627237278</v>
       </c>
       <c r="S6">
-        <v>0.3409159076209961</v>
+        <v>0.008326349719314421</v>
       </c>
       <c r="T6">
-        <v>0.3409159076209961</v>
+        <v>0.01014641600525707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.106753</v>
+      </c>
+      <c r="I7">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="J7">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3105913333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.931774</v>
+      </c>
+      <c r="O7">
+        <v>0.03128659259739168</v>
+      </c>
+      <c r="P7">
+        <v>0.03928326902580845</v>
+      </c>
+      <c r="Q7">
+        <v>0.01105218553577778</v>
+      </c>
+      <c r="R7">
+        <v>0.09946966982200001</v>
+      </c>
+      <c r="S7">
+        <v>0.0006448253956964541</v>
+      </c>
+      <c r="T7">
+        <v>0.001178667772081541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.106753</v>
+      </c>
+      <c r="I8">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="J8">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N8">
+        <v>10.180718</v>
+      </c>
+      <c r="O8">
+        <v>0.3418425244908446</v>
+      </c>
+      <c r="P8">
+        <v>0.4292155437583475</v>
+      </c>
+      <c r="Q8">
+        <v>0.1207580209615556</v>
+      </c>
+      <c r="R8">
+        <v>1.086822188654</v>
+      </c>
+      <c r="S8">
+        <v>0.007045469730668609</v>
+      </c>
+      <c r="T8">
+        <v>0.01287832049751382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.106753</v>
+      </c>
+      <c r="I9">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="J9">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1456443333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.436933</v>
+      </c>
+      <c r="O9">
+        <v>0.01467109488283225</v>
+      </c>
+      <c r="P9">
+        <v>0.01842094390405137</v>
+      </c>
+      <c r="Q9">
+        <v>0.005182656505444444</v>
+      </c>
+      <c r="R9">
+        <v>0.046643908549</v>
+      </c>
+      <c r="S9">
+        <v>0.0003023753556311281</v>
+      </c>
+      <c r="T9">
+        <v>0.0005527078944667956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.106753</v>
+      </c>
+      <c r="I10">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="J10">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.044866</v>
+      </c>
+      <c r="O10">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P10">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q10">
+        <v>0.0005321755664444445</v>
+      </c>
+      <c r="R10">
+        <v>0.004789580097999999</v>
+      </c>
+      <c r="S10">
+        <v>3.104909152146026E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.675422179864476E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.106753</v>
+      </c>
+      <c r="I11">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="J11">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.0625345</v>
+      </c>
+      <c r="N11">
+        <v>12.125069</v>
+      </c>
+      <c r="O11">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P11">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q11">
+        <v>0.2157312484928333</v>
+      </c>
+      <c r="R11">
+        <v>1.294387490957</v>
+      </c>
+      <c r="S11">
+        <v>0.01258655921248899</v>
+      </c>
+      <c r="T11">
+        <v>0.01533786955266509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04573</v>
+      </c>
+      <c r="H12">
+        <v>0.13719</v>
+      </c>
+      <c r="I12">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J12">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3105913333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.931774</v>
+      </c>
+      <c r="O12">
+        <v>0.03128659259739168</v>
+      </c>
+      <c r="P12">
+        <v>0.03928326902580845</v>
+      </c>
+      <c r="Q12">
+        <v>0.01420334167333333</v>
+      </c>
+      <c r="R12">
+        <v>0.12783007506</v>
+      </c>
+      <c r="S12">
+        <v>0.0008286755035979929</v>
+      </c>
+      <c r="T12">
+        <v>0.001514724941236936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.57619955629736</v>
-      </c>
-      <c r="H7">
-        <v>1.57619955629736</v>
-      </c>
-      <c r="I7">
-        <v>0.9877820029073566</v>
-      </c>
-      <c r="J7">
-        <v>0.9877820029073566</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.99321026855207</v>
-      </c>
-      <c r="N7">
-        <v>5.99321026855207</v>
-      </c>
-      <c r="O7">
-        <v>0.6378316203398848</v>
-      </c>
-      <c r="P7">
-        <v>0.6378316203398848</v>
-      </c>
-      <c r="Q7">
-        <v>9.446495366088556</v>
-      </c>
-      <c r="R7">
-        <v>9.446495366088556</v>
-      </c>
-      <c r="S7">
-        <v>0.6300385954569762</v>
-      </c>
-      <c r="T7">
-        <v>0.6300385954569762</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04573</v>
+      </c>
+      <c r="H13">
+        <v>0.13719</v>
+      </c>
+      <c r="I13">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J13">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N13">
+        <v>10.180718</v>
+      </c>
+      <c r="O13">
+        <v>0.3418425244908446</v>
+      </c>
+      <c r="P13">
+        <v>0.4292155437583475</v>
+      </c>
+      <c r="Q13">
+        <v>0.1551880780466666</v>
+      </c>
+      <c r="R13">
+        <v>1.39669270242</v>
+      </c>
+      <c r="S13">
+        <v>0.009054246647405005</v>
+      </c>
+      <c r="T13">
+        <v>0.0165501371301408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04573</v>
+      </c>
+      <c r="H14">
+        <v>0.13719</v>
+      </c>
+      <c r="I14">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J14">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1456443333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.436933</v>
+      </c>
+      <c r="O14">
+        <v>0.01467109488283225</v>
+      </c>
+      <c r="P14">
+        <v>0.01842094390405137</v>
+      </c>
+      <c r="Q14">
+        <v>0.006660315363333333</v>
+      </c>
+      <c r="R14">
+        <v>0.05994283827</v>
+      </c>
+      <c r="S14">
+        <v>0.0003885874405312681</v>
+      </c>
+      <c r="T14">
+        <v>0.0007102938188331915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04573</v>
+      </c>
+      <c r="H15">
+        <v>0.13719</v>
+      </c>
+      <c r="I15">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J15">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.044866</v>
+      </c>
+      <c r="O15">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P15">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q15">
+        <v>0.0006839073933333333</v>
+      </c>
+      <c r="R15">
+        <v>0.00615516654</v>
+      </c>
+      <c r="S15">
+        <v>3.99016876886751E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.293576469566266E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04573</v>
+      </c>
+      <c r="H16">
+        <v>0.13719</v>
+      </c>
+      <c r="I16">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="J16">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.0625345</v>
+      </c>
+      <c r="N16">
+        <v>12.125069</v>
+      </c>
+      <c r="O16">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P16">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q16">
+        <v>0.277239702685</v>
+      </c>
+      <c r="R16">
+        <v>1.66343821611</v>
+      </c>
+      <c r="S16">
+        <v>0.01617519000272933</v>
+      </c>
+      <c r="T16">
+        <v>0.01971094324215829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.621679</v>
+      </c>
+      <c r="H17">
+        <v>3.243358</v>
+      </c>
+      <c r="I17">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J17">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3105913333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.931774</v>
+      </c>
+      <c r="O17">
+        <v>0.03128659259739168</v>
+      </c>
+      <c r="P17">
+        <v>0.03928326902580845</v>
+      </c>
+      <c r="Q17">
+        <v>0.5036794428486667</v>
+      </c>
+      <c r="R17">
+        <v>3.022076657092</v>
+      </c>
+      <c r="S17">
+        <v>0.02938652223921473</v>
+      </c>
+      <c r="T17">
+        <v>0.03581015566703365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.621679</v>
+      </c>
+      <c r="H18">
+        <v>3.243358</v>
+      </c>
+      <c r="I18">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J18">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N18">
+        <v>10.180718</v>
+      </c>
+      <c r="O18">
+        <v>0.3418425244908446</v>
+      </c>
+      <c r="P18">
+        <v>0.4292155437583475</v>
+      </c>
+      <c r="Q18">
+        <v>5.503285528507333</v>
+      </c>
+      <c r="R18">
+        <v>33.019713171044</v>
+      </c>
+      <c r="S18">
+        <v>0.3210820391191144</v>
+      </c>
+      <c r="T18">
+        <v>0.3912677284214535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.621679</v>
+      </c>
+      <c r="H19">
+        <v>3.243358</v>
+      </c>
+      <c r="I19">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J19">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1456443333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.436933</v>
+      </c>
+      <c r="O19">
+        <v>0.01467109488283225</v>
+      </c>
+      <c r="P19">
+        <v>0.01842094390405137</v>
+      </c>
+      <c r="Q19">
+        <v>0.2361883568356667</v>
+      </c>
+      <c r="R19">
+        <v>1.417130141014</v>
+      </c>
+      <c r="S19">
+        <v>0.01378010260164676</v>
+      </c>
+      <c r="T19">
+        <v>0.01679231095315389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.621679</v>
+      </c>
+      <c r="H20">
+        <v>3.243358</v>
+      </c>
+      <c r="I20">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J20">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.044866</v>
+      </c>
+      <c r="O20">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P20">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q20">
+        <v>0.02425275000466667</v>
+      </c>
+      <c r="R20">
+        <v>0.145516500028</v>
+      </c>
+      <c r="S20">
+        <v>0.00141499516705189</v>
+      </c>
+      <c r="T20">
+        <v>0.00172430057520078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.621679</v>
+      </c>
+      <c r="H21">
+        <v>3.243358</v>
+      </c>
+      <c r="I21">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="J21">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.0625345</v>
+      </c>
+      <c r="N21">
+        <v>12.125069</v>
+      </c>
+      <c r="O21">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P21">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q21">
+        <v>9.8314848854255</v>
+      </c>
+      <c r="R21">
+        <v>39.325939541702</v>
+      </c>
+      <c r="S21">
+        <v>0.5736052033333938</v>
+      </c>
+      <c r="T21">
+        <v>0.4659934794955902</v>
       </c>
     </row>
   </sheetData>
